--- a/Szablon testowy.xlsx
+++ b/Szablon testowy.xlsx
@@ -360,21 +360,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -385,18 +412,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -407,21 +422,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,17 +709,19 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -732,11 +734,11 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -749,11 +751,11 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="11"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -766,11 +768,11 @@
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="14"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -783,11 +785,11 @@
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -838,80 +840,80 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="21" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="27"/>
+      <c r="F9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="17" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="18"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="20"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="28" t="s">
+      <c r="C11" s="16"/>
+      <c r="D11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="28" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="28" t="s">
+      <c r="G11" s="17"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="29"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="F9:H10"/>
     <mergeCell ref="I9:K10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I11:K11"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
